--- a/output/google_maps_data_Toko_Oleh_oleh_Sleman.xlsx
+++ b/output/google_maps_data_Toko_Oleh_oleh_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Toko+Oleh+oleh+Sleman/@-7.8053374,110.3684985,15z/data=!4m2!2m1!6e6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(0274) 489898</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>-7.783273</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.783273</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.428878</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+oleh-oleh+DJOE/@-7.7832729,110.4108539,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5a02d9d2e3df:0xe05944fd425b98ca!8m2!3d-7.7832729!4d110.4288783!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11c1wwylfx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+oleh-oleh+DJOE/@-7.7832729,110.4108539,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5a02d9d2e3df:0xe05944fd425b98ca!8m2!3d-7.7832729!4d110.4288783!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11c1wwylfx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -575,25 +568,24 @@
           <t>0818-0432-0927</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.66901</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.66901</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.333076</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh+oleh+khas+Jogja/@-7.6690097,110.3150518,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5f27fc4c38a5:0x68c6566363ad22a5!8m2!3d-7.6690097!4d110.3330762!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F11pvf9p_nj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh+oleh+khas+Jogja/@-7.6690097,110.3150518,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5f27fc4c38a5:0x68c6566363ad22a5!8m2!3d-7.6690097!4d110.3330762!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F11pvf9p_nj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -616,25 +608,24 @@
           <t>(0274) 566184</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.793935</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.793935</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.367778</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Khas+Jogja+BU+TINI/@-7.7939353,110.3497535,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a582840a0f525:0x9109beec43928361!8m2!3d-7.7939353!4d110.3677779!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F1hm5669kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Khas+Jogja+BU+TINI/@-7.7939353,110.3497535,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a582840a0f525:0x9109beec43928361!8m2!3d-7.7939353!4d110.3677779!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F1hm5669kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -653,25 +644,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.660604</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.660604</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.371231</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Oleh-Oleh+Sleman+(Aneka+Olahan+Salak+Cristal)/@-7.6606038,110.3532063,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5fb195b5eefd:0xa740fe9cf1ee84e6!8m2!3d-7.6606038!4d110.3712307!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgENZ3JlZW5fZ3JvY2Vyc-ABAA!16s%2Fg%2F11bx8hkkyw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Oleh-Oleh+Sleman+(Aneka+Olahan+Salak+Cristal)/@-7.6606038,110.3532063,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5fb195b5eefd:0xa740fe9cf1ee84e6!8m2!3d-7.6606038!4d110.3712307!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgENZ3JlZW5fZ3JvY2Vyc-ABAA!16s%2Fg%2F11bx8hkkyw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -694,25 +684,24 @@
           <t>0822-2555-7758</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.719986</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.719986</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.403584</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Oleh-Oleh+Bakpia+Pathok+Rizky+Pusat+(Gentan)/@-7.7199862,110.3855592,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5914f142a1c3:0x6b12e38fa1d71644!8m2!3d-7.7199862!4d110.4035836!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEEZGVsaeABAA!16s%2Fg%2F11h1zw2cq0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -731,25 +720,24 @@
           <t>(0274) 562985</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.792711</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.792711</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.366577</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh/@-7.7927108,110.3485522,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a58289c4c7c19:0x90bf3e3bd6d7021b!8m2!3d-7.7927108!4d110.3665766!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW6SAQ5zb3V2ZW5pcl9zdG9yZeABAA!16s%2Fg%2F1pzr_74yh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -768,25 +756,24 @@
           <t>(0274) 562985</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.75836</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.75836</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.400102</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Mutiara+Jogja+-+Ruko+Depan+Polda+Sleman/@-7.7583603,110.3820774,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59a4e3ff6a37:0x94c10ede1fd5b886!8m2!3d-7.7583603!4d110.4001018!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11pwvff2yw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Mutiara+Jogja+-+Ruko+Depan+Polda+Sleman/@-7.7583603,110.3820774,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59a4e3ff6a37:0x94c10ede1fd5b886!8m2!3d-7.7583603!4d110.4001018!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11pwvff2yw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -813,25 +800,24 @@
           <t>0817-9438-740</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>-7.79497</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.79497</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.365348</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jogja+Pasaraya/@-7.7949698,110.3473236,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59779366cb35:0x3aafac9b4832206c!8m2!3d-7.7949698!4d110.365348!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11kgr0n7sw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jogja+Pasaraya/@-7.7949698,110.3473236,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59779366cb35:0x3aafac9b4832206c!8m2!3d-7.7949698!4d110.365348!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11kgr0n7sw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -858,25 +844,24 @@
           <t>0878-7878-0251</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>-7.796874</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.796874</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.365442</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gemah+Ripah/@-7.7949698,110.3473236,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a57881720aa59:0x5198d2225ea2e7f4!8m2!3d-7.7968741!4d110.3654422!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F1tsgh5_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gemah+Ripah/@-7.7949698,110.3473236,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a57881720aa59:0x5198d2225ea2e7f4!8m2!3d-7.7968741!4d110.3654422!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F1tsgh5_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -903,25 +888,24 @@
           <t>0878-7878-0251</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.783388</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.783388</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.401157</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh-Oleh+Jogja+Amplaz+Malio17/@-7.7833879,110.3831324,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a573b437d1a03:0xbd1eb7212935c781!8m2!3d-7.7833879!4d110.4011568!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F11k9cyyx19?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh-Oleh+Jogja+Amplaz+Malio17/@-7.7833879,110.3831324,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a573b437d1a03:0xbd1eb7212935c781!8m2!3d-7.7833879!4d110.4011568!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F11k9cyyx19?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -944,25 +928,24 @@
           <t>(0274) 866129</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.695</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.695</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.34563</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PUSAT+OLEH+-+OLEH+MANGGA+TIGA/@-7.6950002,110.3276058,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5f428896bbab:0xdfed257f767baedc!8m2!3d-7.6950002!4d110.3456302!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnVNVkJQWWpkUlJSQULgAQD6AQQIABA0!16s%2Fg%2F11c56s8__7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -985,25 +968,24 @@
           <t>0895-3286-67027</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.746364</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.746364</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.405952</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Mino+805/@-7.7463638,110.3879273,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5973b3b50eeb:0xee2733e39d2f7f80!8m2!3d-7.7463638!4d110.4059517!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEJY2FrZV9zaG9w4AEA!16s%2Fg%2F11bxg5yp6k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Mino+805/@-7.7463638,110.3879273,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5973b3b50eeb:0xee2733e39d2f7f80!8m2!3d-7.7463638!4d110.4059517!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEJY2FrZV9zaG9w4AEA!16s%2Fg%2F11bxg5yp6k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1026,25 +1008,24 @@
           <t>0852-9202-2822</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>3.7</v>
+        <v>-7.753016</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.753016</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.393121</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Buku+Jogjakarta+Sleman/@-7.7530162,110.3750962,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59cb68c65a7d:0x69dd22b694d3d92b!8m2!3d-7.7530162!4d110.3931206!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW6SAQpib29rX3N0b3Jl4AEA!16s%2Fg%2F11hdng_w06?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Buku+Jogjakarta+Sleman/@-7.7530162,110.3750962,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59cb68c65a7d:0x69dd22b694d3d92b!8m2!3d-7.7530162!4d110.3931206!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW6SAQpib29rX3N0b3Jl4AEA!16s%2Fg%2F11hdng_w06?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1071,25 +1052,24 @@
           <t>(0274) 566122</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>-7.796894</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.796894</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.357974</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pabrik+Bakpia+Pathok+25/@-7.7968937,110.3399494,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a578e196cf7c9:0xa47522a4f2b4fcdc!8m2!3d-7.7968937!4d110.3579738!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEZZm9vZF9tYW51ZmFjdHVyaW5nX3N1cHBseeABAA!16s%2Fg%2F1hm29l42j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pabrik+Bakpia+Pathok+25/@-7.7968937,110.3399494,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a578e196cf7c9:0xa47522a4f2b4fcdc!8m2!3d-7.7968937!4d110.3579738!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEZZm9vZF9tYW51ZmFjdHVyaW5nX3N1cHBseeABAA!16s%2Fg%2F1hm29l42j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -1112,25 +1092,24 @@
           <t>(0274) 4463151</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.752631</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.752631</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.398499</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Merah+Condongcatur/@-7.7526315,110.3804742,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a590bbb7fd797:0xe43caaaccc7d7144!8m2!3d-7.7526315!4d110.3984986!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEQc3RhdGlvbmVyeV9zdG9yZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSaGRFb3RUMlZCRUFF4AEA-gEECAAQSQ!16s%2Fg%2F1pt_4f678?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Merah+Condongcatur/@-7.7526315,110.3804742,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a590bbb7fd797:0xe43caaaccc7d7144!8m2!3d-7.7526315!4d110.3984986!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEQc3RhdGlvbmVyeV9zdG9yZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSaGRFb3RUMlZCRUFF4AEA-gEECAAQSQ!16s%2Fg%2F1pt_4f678?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1149,25 +1128,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.741758</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.741758</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.408037</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Flamboyan/@-7.7417579,110.3900123,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59723de85659:0xd8aa3924bcb6a078!8m2!3d-7.7417579!4d110.4080367!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgELc3VwZXJtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkVOamcyUzFsUkVBReABAPoBBAhJEEI!16s%2Fg%2F11csc7w9nd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Flamboyan/@-7.7417579,110.3900123,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59723de85659:0xd8aa3924bcb6a078!8m2!3d-7.7417579!4d110.4080367!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgELc3VwZXJtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkVOamcyUzFsUkVBReABAPoBBAhJEEI!16s%2Fg%2F11csc7w9nd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1194,25 +1172,24 @@
           <t>0813-2073-6867</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>-7.786494</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.786494</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.366837</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Podjok+Wisata/@-7.7864943,110.348813,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5961c2969963:0x73fedf7c39372a74!8m2!3d-7.7864943!4d110.3668374!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11h00d0yrz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Podjok+Wisata/@-7.7864943,110.348813,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5961c2969963:0x73fedf7c39372a74!8m2!3d-7.7864943!4d110.3668374!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11h00d0yrz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1235,25 +1212,24 @@
           <t>0857-2960-4331</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>-7.74455</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.74455</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.389487</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Keramik+pecah+belah/@-7.74455,110.3714623,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a590543ba221d:0xcc8e52a3d5146706!8m2!3d-7.74455!4d110.3894867!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEQaG9tZV9nb29kc19zdG9yZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGJVeDJZMmRSUlJBQuABAPoBBAgAED4!16s%2Fg%2F11c37_y46j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Keramik+pecah+belah/@-7.74455,110.3714623,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a590543ba221d:0xcc8e52a3d5146706!8m2!3d-7.74455!4d110.3894867!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEQaG9tZV9nb29kc19zdG9yZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGJVeDJZMmRSUlJBQuABAPoBBAgAED4!16s%2Fg%2F11c37_y46j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1280,25 +1256,24 @@
           <t>0856-0097-0799</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.746481</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.746481</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.412244</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Berly+Bread+Jambusari/@-7.7464811,110.3942191,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a595ffa0e3487:0xedcde2c3c3d164a5!8m2!3d-7.7464811!4d110.4122435!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11j2ccw4tb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Berly+Bread+Jambusari/@-7.7464811,110.3942191,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a595ffa0e3487:0xedcde2c3c3d164a5!8m2!3d-7.7464811!4d110.4122435!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11j2ccw4tb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1325,25 +1300,24 @@
           <t>0878-3991-6613</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.9</v>
+        <v>-7.745393</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.745393</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.398177</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Artlinx+Store/@-7.7453926,110.380153,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59a7e6b66fd5:0x98dfdf689fa1241c!8m2!3d-7.7453926!4d110.3981774!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEQc3RhdGlvbmVyeV9zdG9yZeABAA!16s%2Fg%2F11g6hwlhw5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Artlinx+Store/@-7.7453926,110.380153,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59a7e6b66fd5:0x98dfdf689fa1241c!8m2!3d-7.7453926!4d110.3981774!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEQc3RhdGlvbmVyeV9zdG9yZeABAA!16s%2Fg%2F11g6hwlhw5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -1362,25 +1336,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>-7.805191</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.805191</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.360353</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh+-+Oleh+Terlengkap/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a578dde7f1329:0x76945642e488661d!8m2!3d-7.805191!4d110.3603533!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11jk6kmz5v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh+-+Oleh+Terlengkap/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a578dde7f1329:0x76945642e488661d!8m2!3d-7.805191!4d110.3603533!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11jk6kmz5v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1403,25 +1376,24 @@
           <t>0857-2590-7688</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.793171</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.793171</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.365526</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Oleh+Oleh+Jogja/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a582633dec295:0x8d7cddebc8d3b8f5!8m2!3d-7.793171!4d110.3655261!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11g6xr9m0d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1440,25 +1412,24 @@
           <t>0857-2590-7688</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>-7.743472</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.743472</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.389751</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ChezMoi+Patissier+%26+Chocolatier+Jl.+Kaliurang/@-7.7434719,110.3717262,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a590552a8e3e9:0x35e362a356b259ab!8m2!3d-7.7434719!4d110.3897506!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11b61rbdrq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ChezMoi+Patissier+%26+Chocolatier+Jl.+Kaliurang/@-7.7434719,110.3717262,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a590552a8e3e9:0x35e362a356b259ab!8m2!3d-7.7434719!4d110.3897506!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11b61rbdrq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1481,25 +1452,24 @@
           <t>0813-2532-6932</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>-7.73654</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.73654</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.39419</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AIS+AKI+Sleman/@-7.7434719,110.3717262,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5916e899564d:0xac115e40f200be3f!8m2!3d-7.7365405!4d110.3941899!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgERY2FyX2JhdHRlcnlfc3RvcmXgAQA!16s%2Fg%2F11bw61ghrz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/AIS+AKI+Sleman/@-7.7434719,110.3717262,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5916e899564d:0xac115e40f200be3f!8m2!3d-7.7365405!4d110.3941899!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgERY2FyX2JhdHRlcnlfc3RvcmXgAQA!16s%2Fg%2F11bw61ghrz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1522,25 +1492,24 @@
           <t>(0274) 551888</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>-7.793693</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.793693</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.365896</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dagelan+Pusat+Oleh-Oleh+Khas+Jogja/@-7.7936929,110.3478717,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a58262dad55df:0xded076c1f9d1ac2e!8m2!3d-7.7936929!4d110.3658961!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F11bzsd7_x4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1559,25 +1528,24 @@
           <t>0896-8698-7227</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>-7.718937</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.718937</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.404961</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ollin+Bakery+%26+Cakeshop/@-7.7189375,110.386937,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5949af2e5b83:0x1aae8f5c6a5a7b3d!8m2!3d-7.7189375!4d110.4049614!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11b6smfd56?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1596,25 +1564,24 @@
           <t>0896-8698-7227</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>-7.74568</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.74568</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.406686</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisli+Bakery/@-7.7456799,110.388662,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a599f42ec3e33:0x9618c02be5631719!8m2!3d-7.7456799!4d110.4066864!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11qhw6qdx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisli+Bakery/@-7.7456799,110.388662,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a599f42ec3e33:0x9618c02be5631719!8m2!3d-7.7456799!4d110.4066864!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11qhw6qdx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1637,25 +1604,24 @@
           <t>0877-4400-5757</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.6</v>
+        <v>-7.74568</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.74568</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.406686</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisli+Bakery/@-7.7456799,110.388662,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a599f42ec3e33:0x9618c02be5631719!8m2!3d-7.7456799!4d110.4066864!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11qhw6qdx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
